--- a/console/Elastic-Compute/Virtual-Machine/components/select/imageSelect.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/select/imageSelect.xlsx
@@ -22,42 +22,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please select the version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>third</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please select the security image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>private</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please select the private image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shared</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please select the shared image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>security</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please select the image from the image marketplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no_public</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No available image from the image marketplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -195,6 +171,30 @@
       </rPr>
       <t>无可用镜像市场镜像</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select security image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select private image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select shared image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select image from marketplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No available marketplace image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +560,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,98 +576,98 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
